--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2884.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2884.xlsx
@@ -354,7 +354,7 @@
         <v>1.876861527782768</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.929078503999364</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2884.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2884.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205558718239292</v>
+        <v>2.228626251220703</v>
       </c>
       <c r="B1">
-        <v>1.876861527782768</v>
+        <v>2.447827577590942</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.566384077072144</v>
       </c>
       <c r="D1">
-        <v>1.929078503999364</v>
+        <v>3.405359983444214</v>
       </c>
       <c r="E1">
-        <v>1.203334303424727</v>
+        <v>1.641739010810852</v>
       </c>
     </row>
   </sheetData>
